--- a/experiment/result/usefulness_coverage/puerts_register.xlsx
+++ b/experiment/result/usefulness_coverage/puerts_register.xlsx
@@ -1,56 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dz\CJSBinder\experiment\result\usefulness_coverage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5731DB3-4953-4710-AB7B-B5041AB3F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="3765" windowWidth="20070" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>FBox2D</t>
-  </si>
-  <si>
-    <t>FColor</t>
-  </si>
-  <si>
-    <t>FTransform</t>
-  </si>
-  <si>
-    <t>FIntPoint</t>
-  </si>
-  <si>
-    <t>FVector</t>
-  </si>
-  <si>
-    <t>Avg. U</t>
-  </si>
-  <si>
-    <t>Avg. C</t>
-  </si>
-  <si>
-    <t>U/GC</t>
-  </si>
-  <si>
-    <t>C/TC</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
   <si>
     <t>Class Name</t>
   </si>
@@ -72,16 +36,50 @@
   <si>
     <t>LOC:Target code</t>
   </si>
+  <si>
+    <t>FBox2D</t>
+  </si>
+  <si>
+    <t>FColor</t>
+  </si>
+  <si>
+    <t>FTransform</t>
+  </si>
+  <si>
+    <t>FIntPoint</t>
+  </si>
+  <si>
+    <t>FVector</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Avg. U</t>
+  </si>
+  <si>
+    <t>Avg. C</t>
+  </si>
+  <si>
+    <t>U/GC</t>
+  </si>
+  <si>
+    <t>C/TC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,36 +92,357 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,51 +450,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -433,593 +1038,582 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
-        <v>21</v>
-      </c>
-      <c r="E2" s="11">
-        <v>21</v>
-      </c>
-      <c r="F2" s="11">
-        <v>21</v>
-      </c>
-      <c r="G2" s="11">
-        <v>21</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="3">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
-        <v>21</v>
-      </c>
-      <c r="E3" s="11">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11">
-        <v>21</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="D4" s="3">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
-        <v>21</v>
-      </c>
-      <c r="E4" s="11">
-        <v>21</v>
-      </c>
-      <c r="F4" s="11">
-        <v>21</v>
-      </c>
-      <c r="G4" s="11">
-        <v>21</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="3">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
-        <v>21</v>
-      </c>
-      <c r="E5" s="11">
-        <v>21</v>
-      </c>
-      <c r="F5" s="11">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11">
-        <v>21</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>21</v>
-      </c>
-      <c r="E6" s="11">
-        <v>21</v>
-      </c>
-      <c r="F6" s="11">
-        <v>21</v>
-      </c>
-      <c r="G6" s="11">
-        <v>21</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D6" s="3">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5">
         <f>SUM(D2:D6)</f>
         <v>105</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <f t="shared" ref="E7:G7" si="0">SUM(E2:E6)</f>
         <v>105</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="13">
+      <c r="B8" s="7">
         <f>AVERAGE(B2:B6)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <f>AVERAGE(C2:C6)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <f>D7/E7</f>
         <v>1</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
         <f>F7/G7</f>
         <v>1</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="4"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="3"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" s="10"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="6" t="e">
-        <f>AVERAGE(J2:J26)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="4">
-        <f>SUM(B2:B26)</f>
-        <v>6</v>
-      </c>
-      <c r="C28" s="4">
-        <f>SUM(C2:C26)</f>
-        <v>6</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.74736842105263201</v>
-      </c>
-      <c r="E28" s="3"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+    <row r="35" spans="4:7">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+    <row r="36" spans="4:7">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+    <row r="37" spans="4:7">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+    <row r="38" spans="4:7">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+    <row r="39" spans="4:7">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+    <row r="40" spans="4:7">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+    <row r="41" spans="4:7">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+    <row r="42" spans="4:7">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+    <row r="43" spans="4:7">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+    <row r="44" spans="4:7">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+    <row r="45" spans="4:7">
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+    <row r="46" spans="4:7">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+    <row r="47" spans="4:7">
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+    <row r="48" spans="4:7">
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>